--- a/SQLInstance/Synapse Compatibility Checks.xlsx
+++ b/SQLInstance/Synapse Compatibility Checks.xlsx
@@ -2555,4 +2555,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/SQLInstance/Synapse Compatibility Checks.xlsx
+++ b/SQLInstance/Synapse Compatibility Checks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/silvam_microsoft_com/Documents/Projects/Diagnostics/SynapseCompatibilityChecks/SQLInstance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/silvam_microsoft_com/Documents/Projects/GitHub/SynapseCompatibilityChecks/SQLInstance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="647" documentId="11_F25DC773A252ABDACC104855719E50C65ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B031F12-1778-4F75-9C4B-BA66D62A55E3}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance" sheetId="15" r:id="rId1"/>
@@ -1692,45 +1692,45 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" customWidth="1"/>
+    <col min="16" max="16" width="17.26953125" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" customWidth="1"/>
+    <col min="21" max="21" width="16.81640625" customWidth="1"/>
+    <col min="22" max="22" width="17.1796875" customWidth="1"/>
+    <col min="23" max="23" width="19.453125" customWidth="1"/>
     <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.81640625" customWidth="1"/>
     <col min="27" max="27" width="16" customWidth="1"/>
     <col min="28" max="28" width="25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7265625" customWidth="1"/>
     <col min="31" max="31" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="C2" s="5"/>
     </row>
   </sheetData>
@@ -1846,15 +1846,15 @@
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1885,17 +1885,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="6" max="6" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1932,15 +1932,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1971,16 +1971,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2009,47 +2009,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:AF1"/>
+      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="2" customWidth="1"/>
     <col min="16" max="16" width="19" style="2" customWidth="1"/>
     <col min="17" max="17" width="17" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="24.5703125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="25.1796875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="22.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.453125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="24.54296875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="24.54296875" style="4" customWidth="1"/>
     <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -2160,7 +2160,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -2191,35 +2191,35 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.26953125" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.54296875" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2301,26 +2301,26 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" customWidth="1"/>
+    <col min="15" max="15" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2385,32 +2385,32 @@
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.85546875" customWidth="1"/>
-    <col min="22" max="22" width="18.85546875" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" customWidth="1"/>
+    <col min="19" max="19" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" customWidth="1"/>
+    <col min="23" max="23" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2495,23 +2495,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.5703125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.54296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/SQLInstance/Synapse Compatibility Checks.xlsx
+++ b/SQLInstance/Synapse Compatibility Checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/silvam_microsoft_com/Documents/Projects/GitHub/SynapseCompatibilityChecks/SQLInstance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="647" documentId="11_F25DC773A252ABDACC104855719E50C65ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B031F12-1778-4F75-9C4B-BA66D62A55E3}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="11_F25DC773A252ABDACC104855719E50C65ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B1E8480-0172-4424-ABB5-A859CE4C7810}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
   <si>
     <t>DatabaseName</t>
   </si>
@@ -560,7 +560,25 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1189,7 +1207,7 @@
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{D1F0D0B2-4B09-4EE8-9D7B-867FA5F3FF31}" name="ServerName"/>
     <tableColumn id="2" xr3:uid="{542398CE-8D7E-4464-80AF-5F23B41FDE13}" name="WindowsRelease"/>
-    <tableColumn id="3" xr3:uid="{467B99FC-EDAA-4077-87AD-A16B53ABC49F}" name="CreatedDate" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{467B99FC-EDAA-4077-87AD-A16B53ABC49F}" name="CreatedDate" dataDxfId="40"/>
     <tableColumn id="4" xr3:uid="{FEDC7504-54DD-4858-95A6-8B26A71DEA20}" name="Version"/>
     <tableColumn id="5" xr3:uid="{9E3A32DA-28D2-4FFE-82AD-1FEDCBA265DF}" name="Edition"/>
     <tableColumn id="6" xr3:uid="{9D4074F1-0FA1-4540-A724-4086C486CD58}" name="ProductLevel"/>
@@ -1279,41 +1297,42 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{04934680-DE44-4658-8EEE-EE198E645418}" name="Table15" displayName="Table15" ref="A1:AF3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:AF3" xr:uid="{04934680-DE44-4658-8EEE-EE198E645418}"/>
-  <tableColumns count="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{04934680-DE44-4658-8EEE-EE198E645418}" name="Table15" displayName="Table15" ref="A1:AG3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:AG3" xr:uid="{04934680-DE44-4658-8EEE-EE198E645418}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{08FC8CC8-E7B8-4816-977B-9CB62A890F89}" name="DatabaseName"/>
-    <tableColumn id="2" xr3:uid="{9D6B53AF-2D5D-4726-9A05-26B98F548FA9}" name="DataMB" dataDxfId="36" dataCellStyle="Comma"/>
-    <tableColumn id="32" xr3:uid="{8001F6BF-FFC7-4041-B201-37565753B71E}" name="Files" dataDxfId="35" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{F94A5334-ABE9-4616-B743-6C286E4DEA62}" name="Tables" dataDxfId="34" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{0C7F4299-0D10-4B95-AFC8-8C841D67C4AD}" name="Empty" dataDxfId="33" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{3C279FE9-99FC-438C-B012-86C010D4FDF7}" name="Small" dataDxfId="32" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{DC638AD7-DC7C-49AE-B6A1-79671D34F937}" name="Medium" dataDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{3D592ACD-58E8-4828-8B1F-BC7981CF87E3}" name="Large" dataDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E0C74F65-5AD9-47DC-B91B-1C35532A968C}" name="VeryLarge" dataDxfId="29" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{3C5F7A9B-894A-4AD9-9329-9999A5113B11}" name="Columns" dataDxfId="28" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{48FAE5BC-97D9-48E3-85EF-3BBFCEC46B3A}" name="Rows" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{24E93FD5-32C2-4CCC-9E21-0D0C9F19FFD3}" name="Views" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{A8D1FCF8-FE92-41DD-A87D-35DC3CE62010}" name="Procs" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{D951C168-B143-4ACC-85C6-E0957B6EDB3E}" name="Functions" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{72F0D9C8-2DE8-48C8-9686-F9F4ED01EC64}" name="Indexes" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{14C70B61-31E5-439B-B780-80F5F05BD484}" name="ColumnStores" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{63E3DEC7-B586-4449-98F1-6B590AC00B4B}" name="UniqueIndexes" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{D6F46219-F48C-4132-9C04-4C34B20F7FF7}" name="IncludedColumnIndexes" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{B77BDD42-7E17-48BE-9D68-B9C564FB4E2E}" name="LargeTextColumns" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{A9F0C99F-143B-4188-AB60-8A5A9111F0EA}" name="IncompatibleDefaults" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{E20F4597-BE89-4D71-8E04-6FAF49B561FB}" name="FilteredIndexes" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{A568CA2C-4FE1-4B8A-95BE-E5023214150A}" name="ComputedColumns" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{3D403AA1-BF84-4B47-AEC9-4B6712F4E39A}" name="XServerRoutines" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{62DE4B32-328C-4156-83BF-023D25D01BE7}" name="XOutRoutines" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{065DA0B8-B7B8-4E62-B5C1-D5749AD66E9D}" name="XOutDbs" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{E0E46443-7A15-41DE-A8F4-070139F2C237}" name="XInRoutines" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{48B27011-FBAA-4436-A37F-76514D53F206}" name="XInDbs" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{C5F813C2-D758-4668-994B-4493EC0FCFB7}" name="UsesForXML" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{914CD33C-7704-46B9-8B1F-F85F52818C50}" name="UsesCursor" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{F83C3FEE-DE98-4300-BA6D-B7A42F5AE4FC}" name="IncompatibleColumns" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{868B6C8E-AE03-4F1A-94F1-BF5DBBDB1ECD}" name="IncompatibleRoutinesByType" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{484AA305-68C7-4207-A121-97107E95660A}" name="Sequences" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9D6B53AF-2D5D-4726-9A05-26B98F548FA9}" name="DataMB" dataDxfId="37" dataCellStyle="Comma"/>
+    <tableColumn id="32" xr3:uid="{8001F6BF-FFC7-4041-B201-37565753B71E}" name="Files" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{F94A5334-ABE9-4616-B743-6C286E4DEA62}" name="Tables" dataDxfId="35" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{0C7F4299-0D10-4B95-AFC8-8C841D67C4AD}" name="Empty" dataDxfId="34" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{3C279FE9-99FC-438C-B012-86C010D4FDF7}" name="Small" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{DC638AD7-DC7C-49AE-B6A1-79671D34F937}" name="Medium" dataDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{3D592ACD-58E8-4828-8B1F-BC7981CF87E3}" name="Large" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E0C74F65-5AD9-47DC-B91B-1C35532A968C}" name="VeryLarge" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{3C5F7A9B-894A-4AD9-9329-9999A5113B11}" name="Columns" dataDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{48FAE5BC-97D9-48E3-85EF-3BBFCEC46B3A}" name="Rows" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{24E93FD5-32C2-4CCC-9E21-0D0C9F19FFD3}" name="Views" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{A8D1FCF8-FE92-41DD-A87D-35DC3CE62010}" name="Procs" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{D951C168-B143-4ACC-85C6-E0957B6EDB3E}" name="Functions" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{72F0D9C8-2DE8-48C8-9686-F9F4ED01EC64}" name="Indexes" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{14C70B61-31E5-439B-B780-80F5F05BD484}" name="ColumnStores" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{63E3DEC7-B586-4449-98F1-6B590AC00B4B}" name="UniqueIndexes" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{D6F46219-F48C-4132-9C04-4C34B20F7FF7}" name="IncludedColumnIndexes" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{B77BDD42-7E17-48BE-9D68-B9C564FB4E2E}" name="LargeTextColumns" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{A9F0C99F-143B-4188-AB60-8A5A9111F0EA}" name="IncompatibleDefaults" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{E20F4597-BE89-4D71-8E04-6FAF49B561FB}" name="FilteredIndexes" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{A568CA2C-4FE1-4B8A-95BE-E5023214150A}" name="ComputedColumns" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{3D403AA1-BF84-4B47-AEC9-4B6712F4E39A}" name="XServerRoutines" dataDxfId="16"/>
+    <tableColumn id="33" xr3:uid="{D059724C-E9BB-4291-9FAE-A107BC0A732D}" name="LinkedServers" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{62DE4B32-328C-4156-83BF-023D25D01BE7}" name="XOutRoutines" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{065DA0B8-B7B8-4E62-B5C1-D5749AD66E9D}" name="XOutDbs" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{E0E46443-7A15-41DE-A8F4-070139F2C237}" name="XInRoutines" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{48B27011-FBAA-4436-A37F-76514D53F206}" name="XInDbs" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{C5F813C2-D758-4668-994B-4493EC0FCFB7}" name="UsesForXML" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{914CD33C-7704-46B9-8B1F-F85F52818C50}" name="UsesCursor" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{F83C3FEE-DE98-4300-BA6D-B7A42F5AE4FC}" name="IncompatibleColumns" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{868B6C8E-AE03-4F1A-94F1-BF5DBBDB1ECD}" name="IncompatibleRoutinesByType" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{484AA305-68C7-4207-A121-97107E95660A}" name="Sequences" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1327,15 +1346,15 @@
     <tableColumn id="2" xr3:uid="{1C838312-A5EF-4751-8D1D-F825767EF6E7}" name="SchemaName"/>
     <tableColumn id="3" xr3:uid="{5CFB7B13-55FD-468D-A771-603D8780494F}" name="ObjectName"/>
     <tableColumn id="4" xr3:uid="{76CA0F41-FB30-485F-991E-8EE447313AD0}" name="RowCount"/>
-    <tableColumn id="5" xr3:uid="{8C7937F6-A34F-4294-BA33-C82DCB6DD32A}" name="RowLength" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{8C7937F6-A34F-4294-BA33-C82DCB6DD32A}" name="RowLength" dataDxfId="6" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{0276EFED-0031-48CC-B6ED-40A11B5DF85A}" name="PK"/>
     <tableColumn id="7" xr3:uid="{F7F24CC7-3DAD-47BD-B6F3-4FE386938ED2}" name="PKType"/>
     <tableColumn id="8" xr3:uid="{7F3D37D0-6270-4708-818E-4CD18E46EA29}" name="Writes"/>
     <tableColumn id="9" xr3:uid="{4D327070-572D-4AF1-A075-9097A49E5A86}" name="Reads"/>
-    <tableColumn id="10" xr3:uid="{75FF4492-DB58-4724-B519-E367FE1E8179}" name="PKCols" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{2E87D210-ABF3-4464-A4DC-16B74E89BDB6}" name="Indexes" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1668BDC5-975B-4873-9AC5-5D5BCFF3FD47}" name="Reserved_Size_Mbs" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{2832FA48-B057-4989-BF87-A30C84157A3E}" name="Used_Size_Mbs" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{75FF4492-DB58-4724-B519-E367FE1E8179}" name="PKCols" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{2E87D210-ABF3-4464-A4DC-16B74E89BDB6}" name="Indexes" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1668BDC5-975B-4873-9AC5-5D5BCFF3FD47}" name="Reserved_Size_Mbs" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{2832FA48-B057-4989-BF87-A30C84157A3E}" name="Used_Size_Mbs" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="17" xr3:uid="{6FEAA87B-CF4B-4E7C-A8EB-59FF9CDC8F54}" name="ColumnStores"/>
     <tableColumn id="18" xr3:uid="{789B2956-CC68-46BE-85DE-D109ECA7F626}" name="ColumnsCount"/>
     <tableColumn id="19" xr3:uid="{8FD2F1D2-178E-496E-8940-78D395BE683A}" name="HasIdentity"/>
@@ -1419,7 +1438,7 @@
     <tableColumn id="8" xr3:uid="{5200B7E2-4A03-490D-B193-82BDCAF67D3B}" name="UsesForXML"/>
     <tableColumn id="9" xr3:uid="{9D4849EA-A44C-4263-8AAA-870299FBF02A}" name="UsesCursor"/>
     <tableColumn id="11" xr3:uid="{2C3AB52A-C0EF-44E9-B19D-6C30F9F492DD}" name="IncompatibleType"/>
-    <tableColumn id="10" xr3:uid="{95203223-D59C-49A6-8119-D5B872A7DD18}" name="ROUTINE_DEFINITION" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{95203223-D59C-49A6-8119-D5B872A7DD18}" name="ROUTINE_DEFINITION" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1690,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E30F4C-CF63-4D1D-96BF-CA0D8DEE5EAA}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -2007,11 +2026,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2038,18 +2057,19 @@
     <col min="21" max="21" width="21.453125" style="3" customWidth="1"/>
     <col min="22" max="22" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="24.54296875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="24.54296875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="16.54296875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="24.54296875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="24.54296875" style="4" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2120,47 +2140,51 @@
         <v>70</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="7"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -2172,6 +2196,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQLInstance/Synapse Compatibility Checks.xlsx
+++ b/SQLInstance/Synapse Compatibility Checks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/silvam_microsoft_com/Documents/Projects/GitHub/SynapseCompatibilityChecks/SQLInstance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="11_F25DC773A252ABDACC104855719E50C65ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B1E8480-0172-4424-ABB5-A859CE4C7810}"/>
+  <xr:revisionPtr revIDLastSave="660" documentId="11_F25DC773A252ABDACC104855719E50C65ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625A46D0-C184-411B-820B-6DB0103BEA99}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instance" sheetId="15" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Indexes" sheetId="20" r:id="rId8"/>
     <sheet name="Routines" sheetId="19" r:id="rId9"/>
     <sheet name="Sequences" sheetId="31" r:id="rId10"/>
+    <sheet name="LinkedServers" sheetId="33" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="133">
   <si>
     <t>DatabaseName</t>
   </si>
@@ -437,6 +438,12 @@
   </si>
   <si>
     <t>Files</t>
+  </si>
+  <si>
+    <t>LinkedServer</t>
+  </si>
+  <si>
+    <t>datasource</t>
   </si>
 </sst>
 </file>
@@ -562,24 +569,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -597,6 +586,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1199,6 +1206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,6 +1265,19 @@
 </table>
 </file>
 
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3CAD1375-4292-42CD-9089-04B83CD18A94}" name="Table18" displayName="Table18" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{3CAD1375-4292-42CD-9089-04B83CD18A94}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A08695EB-75E7-4EBB-B304-EF08D8208683}" name="ServerName"/>
+    <tableColumn id="2" xr3:uid="{11914E4D-9042-4B5A-91C1-6E49CC121299}" name="LinkedServer"/>
+    <tableColumn id="3" xr3:uid="{BA1466F3-BAC0-4874-99D6-E58CCCA992C9}" name="providername"/>
+    <tableColumn id="4" xr3:uid="{E6E54BE6-F99C-4315-82C7-DC18DD8919BC}" name="datasource"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3404C942-3AAE-4234-B3C9-B462A4D7C9EA}" name="Table3" displayName="Table3" ref="A1:F3" totalsRowShown="0">
   <autoFilter ref="A1:F3" xr:uid="{3404C942-3AAE-4234-B3C9-B462A4D7C9EA}"/>
@@ -1323,16 +1347,16 @@
     <tableColumn id="20" xr3:uid="{E20F4597-BE89-4D71-8E04-6FAF49B561FB}" name="FilteredIndexes" dataDxfId="18"/>
     <tableColumn id="21" xr3:uid="{A568CA2C-4FE1-4B8A-95BE-E5023214150A}" name="ComputedColumns" dataDxfId="17"/>
     <tableColumn id="22" xr3:uid="{3D403AA1-BF84-4B47-AEC9-4B6712F4E39A}" name="XServerRoutines" dataDxfId="16"/>
-    <tableColumn id="33" xr3:uid="{D059724C-E9BB-4291-9FAE-A107BC0A732D}" name="LinkedServers" dataDxfId="0"/>
-    <tableColumn id="23" xr3:uid="{62DE4B32-328C-4156-83BF-023D25D01BE7}" name="XOutRoutines" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{065DA0B8-B7B8-4E62-B5C1-D5749AD66E9D}" name="XOutDbs" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{E0E46443-7A15-41DE-A8F4-070139F2C237}" name="XInRoutines" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{48B27011-FBAA-4436-A37F-76514D53F206}" name="XInDbs" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{C5F813C2-D758-4668-994B-4493EC0FCFB7}" name="UsesForXML" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{914CD33C-7704-46B9-8B1F-F85F52818C50}" name="UsesCursor" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{F83C3FEE-DE98-4300-BA6D-B7A42F5AE4FC}" name="IncompatibleColumns" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{868B6C8E-AE03-4F1A-94F1-BF5DBBDB1ECD}" name="IncompatibleRoutinesByType" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{484AA305-68C7-4207-A121-97107E95660A}" name="Sequences" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{D059724C-E9BB-4291-9FAE-A107BC0A732D}" name="LinkedServers" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{62DE4B32-328C-4156-83BF-023D25D01BE7}" name="XOutRoutines" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{065DA0B8-B7B8-4E62-B5C1-D5749AD66E9D}" name="XOutDbs" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{E0E46443-7A15-41DE-A8F4-070139F2C237}" name="XInRoutines" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{48B27011-FBAA-4436-A37F-76514D53F206}" name="XInDbs" dataDxfId="11"/>
+    <tableColumn id="27" xr3:uid="{C5F813C2-D758-4668-994B-4493EC0FCFB7}" name="UsesForXML" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{914CD33C-7704-46B9-8B1F-F85F52818C50}" name="UsesCursor" dataDxfId="9"/>
+    <tableColumn id="29" xr3:uid="{F83C3FEE-DE98-4300-BA6D-B7A42F5AE4FC}" name="IncompatibleColumns" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{868B6C8E-AE03-4F1A-94F1-BF5DBBDB1ECD}" name="IncompatibleRoutinesByType" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{484AA305-68C7-4207-A121-97107E95660A}" name="Sequences" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1346,15 +1370,15 @@
     <tableColumn id="2" xr3:uid="{1C838312-A5EF-4751-8D1D-F825767EF6E7}" name="SchemaName"/>
     <tableColumn id="3" xr3:uid="{5CFB7B13-55FD-468D-A771-603D8780494F}" name="ObjectName"/>
     <tableColumn id="4" xr3:uid="{76CA0F41-FB30-485F-991E-8EE447313AD0}" name="RowCount"/>
-    <tableColumn id="5" xr3:uid="{8C7937F6-A34F-4294-BA33-C82DCB6DD32A}" name="RowLength" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{8C7937F6-A34F-4294-BA33-C82DCB6DD32A}" name="RowLength" dataDxfId="5" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{0276EFED-0031-48CC-B6ED-40A11B5DF85A}" name="PK"/>
     <tableColumn id="7" xr3:uid="{F7F24CC7-3DAD-47BD-B6F3-4FE386938ED2}" name="PKType"/>
     <tableColumn id="8" xr3:uid="{7F3D37D0-6270-4708-818E-4CD18E46EA29}" name="Writes"/>
     <tableColumn id="9" xr3:uid="{4D327070-572D-4AF1-A075-9097A49E5A86}" name="Reads"/>
-    <tableColumn id="10" xr3:uid="{75FF4492-DB58-4724-B519-E367FE1E8179}" name="PKCols" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{2E87D210-ABF3-4464-A4DC-16B74E89BDB6}" name="Indexes" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1668BDC5-975B-4873-9AC5-5D5BCFF3FD47}" name="Reserved_Size_Mbs" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{2832FA48-B057-4989-BF87-A30C84157A3E}" name="Used_Size_Mbs" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{75FF4492-DB58-4724-B519-E367FE1E8179}" name="PKCols" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{2E87D210-ABF3-4464-A4DC-16B74E89BDB6}" name="Indexes" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1668BDC5-975B-4873-9AC5-5D5BCFF3FD47}" name="Reserved_Size_Mbs" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{2832FA48-B057-4989-BF87-A30C84157A3E}" name="Used_Size_Mbs" dataDxfId="1" dataCellStyle="Comma"/>
     <tableColumn id="17" xr3:uid="{6FEAA87B-CF4B-4E7C-A8EB-59FF9CDC8F54}" name="ColumnStores"/>
     <tableColumn id="18" xr3:uid="{789B2956-CC68-46BE-85DE-D109ECA7F626}" name="ColumnsCount"/>
     <tableColumn id="19" xr3:uid="{8FD2F1D2-178E-496E-8940-78D395BE683A}" name="HasIdentity"/>
@@ -1438,7 +1462,7 @@
     <tableColumn id="8" xr3:uid="{5200B7E2-4A03-490D-B193-82BDCAF67D3B}" name="UsesForXML"/>
     <tableColumn id="9" xr3:uid="{9D4849EA-A44C-4263-8AAA-870299FBF02A}" name="UsesCursor"/>
     <tableColumn id="11" xr3:uid="{2C3AB52A-C0EF-44E9-B19D-6C30F9F492DD}" name="IncompatibleType"/>
-    <tableColumn id="10" xr3:uid="{95203223-D59C-49A6-8119-D5B872A7DD18}" name="ROUTINE_DEFINITION" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{95203223-D59C-49A6-8119-D5B872A7DD18}" name="ROUTINE_DEFINITION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1709,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E30F4C-CF63-4D1D-96BF-CA0D8DEE5EAA}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1895,6 +1919,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE0A133-6EE7-432D-939A-4AEF826A0360}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A48B6BB-D4E7-456D-9DDF-D375CFF50712}">
   <dimension ref="A1:F1"/>
@@ -2028,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
